--- a/Final Project/Test Case  & Test Scenario/Final Project Test Cases & Test Scenario.xlsx
+++ b/Final Project/Test Case  & Test Scenario/Final Project Test Cases & Test Scenario.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Test case ID</t>
   </si>
@@ -221,7 +221,23 @@
     <t>notification appears that the edit has been successfully</t>
   </si>
   <si>
-    <t>TC_Performance_CreateKeyPerformanceIndikator_009</t>
+    <t>TC_Dashboard_Check_Timesheet_009</t>
+  </si>
+  <si>
+    <t>Check Timesheet</t>
+  </si>
+  <si>
+    <t>1. Login wtih valid username dan password
+2. klik btn Dashboard
+3. klik btn Timesheets
+4. input employee name "Admin A"
+5. klik btn View</t>
+  </si>
+  <si>
+    <t>notification appears that the no timesheet found</t>
+  </si>
+  <si>
+    <t>TC_Performance_CreateKeyPerformanceIndikator_010</t>
   </si>
   <si>
     <t>Create Key Performance Indikator</t>
@@ -241,7 +257,7 @@
     <t>notification appears that the performance indikator has been successfully</t>
   </si>
   <si>
-    <t>TC_Directory_SearchDirectory_010</t>
+    <t>TC_Directory_SearchDirectory_011</t>
   </si>
   <si>
     <t>Search Directory</t>
@@ -255,7 +271,7 @@
 6. Click btn Search</t>
   </si>
   <si>
-    <t>TC_Maintenance_DownloadPersonalData_011</t>
+    <t>TC_Maintenance_DownloadPersonalData_012</t>
   </si>
   <si>
     <t>Download Personal Data</t>
@@ -274,7 +290,7 @@
     <t>personal employee sucsess download</t>
   </si>
   <si>
-    <t>TC_Buzz_UpdateStatus_010</t>
+    <t>TC_Buzz_UpdateStatus_013</t>
   </si>
   <si>
     <t>Update Status</t>
@@ -1318,15 +1334,15 @@
         <v>47</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="3" t="s">
         <v>49</v>
       </c>
@@ -1401,9 +1417,9 @@
       <c r="F71" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="12"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
@@ -1434,52 +1450,52 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76">
-      <c r="B76" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="C78" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="3" t="s">
+      <c r="F78" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="79">
       <c r="B79" s="7"/>
@@ -1491,55 +1507,130 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81">
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="3" t="s">
+      <c r="G83" s="12"/>
+      <c r="H83" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
+    <row r="84">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="91">
     <mergeCell ref="B49:B57"/>
     <mergeCell ref="C49:C57"/>
     <mergeCell ref="D49:D57"/>
@@ -1561,13 +1652,27 @@
     <mergeCell ref="F64:F70"/>
     <mergeCell ref="G64:G70"/>
     <mergeCell ref="H64:H70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="D71:D75"/>
-    <mergeCell ref="E71:E75"/>
-    <mergeCell ref="F71:F75"/>
-    <mergeCell ref="G71:G75"/>
-    <mergeCell ref="H71:H75"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="C71:C77"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="E71:E77"/>
+    <mergeCell ref="F71:F77"/>
+    <mergeCell ref="G71:G77"/>
+    <mergeCell ref="H71:H77"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="H83:H87"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="D5:D12"/>
@@ -1610,20 +1715,13 @@
     <mergeCell ref="F40:F48"/>
     <mergeCell ref="G40:G48"/>
     <mergeCell ref="H40:H48"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="G76:G80"/>
-    <mergeCell ref="H76:H80"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H88:H90"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
